--- a/ky/downloads/data-excel/5.5.2.xlsx
+++ b/ky/downloads/data-excel/5.5.2.xlsx
@@ -605,19 +605,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="39" customWidth="1"/>
+    <col min="1" max="3" width="36.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
@@ -638,7 +636,7 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="22.5">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
@@ -659,7 +657,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -676,7 +674,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="4" spans="1:20" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -734,8 +732,11 @@
       <c r="S4" s="20">
         <v>2022</v>
       </c>
+      <c r="T4" s="20">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" ht="27" customHeight="1" thickBot="1">
+    <row r="5" spans="1:20" s="1" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -792,6 +793,9 @@
       </c>
       <c r="S5" s="21">
         <v>42</v>
+      </c>
+      <c r="T5" s="21">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
